--- a/sample_spr_stim.xlsx
+++ b/sample_spr_stim.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/km/SPR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54ABA1-31EB-C546-9BA0-F1F1D18238E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_spr_stim.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,58 +48,58 @@
     <t>Did the teacher forget to teach?</t>
   </si>
   <si>
-    <t>["The senator", "wrote", "their opponent", "was", "acquitted"]</t>
-  </si>
-  <si>
-    <t>["The professor", "taught", "the lesson",  "was", "easy"]</t>
-  </si>
-  <si>
     <t>bias-comp-comp</t>
   </si>
   <si>
     <t>bias-comp-noun</t>
   </si>
   <si>
-    <t>["The senator", "wrote", "a letter", "to", "me"]</t>
-  </si>
-  <si>
-    <t>["The professor", "taught", "the lesson",  "on", "the board"]</t>
-  </si>
-  <si>
     <t>bias-noun-comp</t>
   </si>
   <si>
     <t>bias-noun-noun</t>
   </si>
   <si>
-    <t>["The actor", "claimed", "his friend", "was", "a star"]</t>
-  </si>
-  <si>
     <t>Did the actor claim something?</t>
   </si>
   <si>
-    <t>["The actor", "claimed", "his roommate", "as", "a friend."]</t>
-  </si>
-  <si>
     <t>Did the actor have a friend?</t>
   </si>
   <si>
-    <t>["The farmer", "wished", "their daughter",  "was", "present"]</t>
-  </si>
-  <si>
     <t>Was the farmer childless?</t>
   </si>
   <si>
-    <t>["The farmer", "wished", "their daughter",  "a", "happy birthday"]</t>
-  </si>
-  <si>
     <t>Did the sentence mention a son?</t>
+  </si>
+  <si>
+    <t>["The farmer", "wished", "their daughter",  "a", "happy birthday", "before", "going", "home"]</t>
+  </si>
+  <si>
+    <t>["The actor", "claimed", "his roommate", "as", "a friend", "of", "high", "rank"]</t>
+  </si>
+  <si>
+    <t>["The farmer", "wished", "their daughter",  "was", "present", "at the", "important", "ceremony"]</t>
+  </si>
+  <si>
+    <t>["The actor", "claimed", "his friend", "was", "a star", "in all", "earthly", "endeavors"]</t>
+  </si>
+  <si>
+    <t>["The professor", "taught", "the lesson",  "on", "the board", "at the", "famous", "university"]</t>
+  </si>
+  <si>
+    <t>["The senator", "wrote", "a letter", "to", "me", "with", "beautiful", "penmanship"]</t>
+  </si>
+  <si>
+    <t>["The professor", "taught", "the lesson",  "was", "easy", "and I", "happily", "agreed"]</t>
+  </si>
+  <si>
+    <t>["The senator", "wrote", "their opponent", "was", "acquitted", "before", "getting", "elected"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -183,6 +189,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -507,21 +521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -538,15 +552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -555,15 +569,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -572,15 +586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -589,15 +603,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -606,69 +620,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
